--- a/Paper Reading Situation － Deep Learning in Adversarial Context.xlsx
+++ b/Paper Reading Situation － Deep Learning in Adversarial Context.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -338,6 +338,36 @@
   </si>
   <si>
     <t>Characterizing Adversarial Subspaces Using Local Intrinsic Dimensionality</t>
+  </si>
+  <si>
+    <t>Generating adversarial examples with adversarial networks</t>
+  </si>
+  <si>
+    <t>Defense against Adversarial Attacks Using High-level representation guided denoiser</t>
+  </si>
+  <si>
+    <t>Adversary A3C for Robust Reinforcement learning</t>
+  </si>
+  <si>
+    <t>Towards Interpretable Deep Neural Networks by Leveraging Adversarial Examples</t>
+  </si>
+  <si>
+    <t>Boosting Adversarial Attacks with Momentum</t>
+  </si>
+  <si>
+    <t>A Connection Between Generative Adversarial Networks, Inverse Reinforcement Learning, and Energy-Based Models</t>
+  </si>
+  <si>
+    <t>Understanding Adversarial Training: Increasing Local Stability of Neural Nets through Robust Optimization</t>
+  </si>
+  <si>
+    <t>Reluplex: An Efficient SMT Solver for Verifying Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>Decision-Based Adversarial Attacks: Reliable Attacks Against Black-Box Machine Learning Models</t>
+  </si>
+  <si>
+    <t>Obfuscated Gradients Give a False Sense of Security: Circumventing Defenses to Adversarial Examples</t>
   </si>
 </sst>
 </file>
@@ -395,7 +425,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="91.43"/>
+    <col customWidth="1" min="1" max="1" width="103.0"/>
     <col customWidth="1" min="2" max="2" width="59.43"/>
     <col customWidth="1" min="3" max="3" width="83.57"/>
   </cols>
@@ -1578,54 +1608,114 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2"/>

--- a/Paper Reading Situation － Deep Learning in Adversarial Context.xlsx
+++ b/Paper Reading Situation － Deep Learning in Adversarial Context.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -368,6 +368,36 @@
   </si>
   <si>
     <t>Obfuscated Gradients Give a False Sense of Security: Circumventing Defenses to Adversarial Examples</t>
+  </si>
+  <si>
+    <t>On the suitability of Lp-norms for Creating and Preventing Adversarial Examples</t>
+  </si>
+  <si>
+    <t>Defnese-GAN: Protecting Classifier Against Adversarial Attacks Using Generative Models</t>
+  </si>
+  <si>
+    <t>PixelDefend: Leveraging Generative Madels To Understand and Defend Against Adversarial Examples</t>
+  </si>
+  <si>
+    <t>Mitigating Adversarial Effects Through Randomization</t>
+  </si>
+  <si>
+    <t>Stochatic Activation Pruning For Roubust Adversarial Defense</t>
+  </si>
+  <si>
+    <t>Thermometer Encoding: One Hot Way To Resist Adversarial Example</t>
+  </si>
+  <si>
+    <t>Spatially Transformed Adversarial Examples</t>
+  </si>
+  <si>
+    <t>Adversarial Vulnerability of Neural Networks Increases with Input Dimension</t>
+  </si>
+  <si>
+    <t>Adversarial Examples that Fool both Human and Computer Vision</t>
+  </si>
+  <si>
+    <t>Adversarial vulnerability for any classifier</t>
   </si>
 </sst>
 </file>
@@ -1718,54 +1748,114 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2"/>
